--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Adm</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H2">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.194209333333333</v>
+        <v>0.09584066666666667</v>
       </c>
       <c r="N2">
-        <v>15.582628</v>
+        <v>0.287522</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="Q2">
-        <v>44.93367134089065</v>
+        <v>1.512378466808667</v>
       </c>
       <c r="R2">
-        <v>404.403042068016</v>
+        <v>13.611406201278</v>
       </c>
       <c r="S2">
-        <v>0.2392268437287548</v>
+        <v>0.1163974506428309</v>
       </c>
       <c r="T2">
-        <v>0.2392268437287548</v>
+        <v>0.1163974506428309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.269711</v>
+        <v>15.780133</v>
       </c>
       <c r="H3">
-        <v>78.809133</v>
+        <v>47.340399</v>
       </c>
       <c r="I3">
-        <v>0.7264617444963627</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J3">
-        <v>0.7264617444963627</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.194209333333333</v>
+        <v>0.205863</v>
       </c>
       <c r="N3">
-        <v>15.582628</v>
+        <v>0.6175889999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6823350948115756</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6823350948115755</v>
       </c>
       <c r="Q3">
-        <v>136.4503780601693</v>
+        <v>3.248545519779</v>
       </c>
       <c r="R3">
-        <v>1228.053402541524</v>
+        <v>29.236909678011</v>
       </c>
       <c r="S3">
-        <v>0.7264617444963627</v>
+        <v>0.2500183817066357</v>
       </c>
       <c r="T3">
-        <v>0.7264617444963627</v>
+        <v>0.2500183817066356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>26.269711</v>
+      </c>
+      <c r="H4">
+        <v>78.809133</v>
+      </c>
+      <c r="I4">
+        <v>0.6099845940236968</v>
+      </c>
+      <c r="J4">
+        <v>0.6099845940236966</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.021265</v>
-      </c>
-      <c r="H4">
-        <v>0.063795</v>
-      </c>
-      <c r="I4">
-        <v>0.0005880616271992926</v>
-      </c>
-      <c r="J4">
-        <v>0.0005880616271992925</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>5.194209333333333</v>
+        <v>0.09584066666666667</v>
       </c>
       <c r="N4">
-        <v>15.582628</v>
+        <v>0.287522</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="Q4">
-        <v>0.1104548614733333</v>
+        <v>2.517706615380667</v>
       </c>
       <c r="R4">
-        <v>0.99409375326</v>
+        <v>22.659359538426</v>
       </c>
       <c r="S4">
-        <v>0.0005880616271992926</v>
+        <v>0.1937706982269372</v>
       </c>
       <c r="T4">
-        <v>0.0005880616271992925</v>
+        <v>0.1937706982269371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9005953333333334</v>
+        <v>26.269711</v>
       </c>
       <c r="H5">
-        <v>2.701786</v>
+        <v>78.809133</v>
       </c>
       <c r="I5">
-        <v>0.02490503443066491</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J5">
-        <v>0.02490503443066491</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.194209333333333</v>
+        <v>0.205863</v>
       </c>
       <c r="N5">
-        <v>15.582628</v>
+        <v>0.6175889999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6823350948115756</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6823350948115755</v>
       </c>
       <c r="Q5">
-        <v>4.677880685956445</v>
+        <v>5.407961515593</v>
       </c>
       <c r="R5">
-        <v>42.100926173608</v>
+        <v>48.671653640337</v>
       </c>
       <c r="S5">
-        <v>0.02490503443066491</v>
+        <v>0.4162138957967596</v>
       </c>
       <c r="T5">
-        <v>0.02490503443066491</v>
+        <v>0.4162138957967594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.973204</v>
+      </c>
+      <c r="H6">
+        <v>2.919612</v>
+      </c>
+      <c r="I6">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="J6">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.09584066666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.287522</v>
+      </c>
+      <c r="O6">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="P6">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="Q6">
+        <v>0.09327252016266667</v>
+      </c>
+      <c r="R6">
+        <v>0.839452681464</v>
+      </c>
+      <c r="S6">
+        <v>0.007178549417511604</v>
+      </c>
+      <c r="T6">
+        <v>0.007178549417511601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.973204</v>
+      </c>
+      <c r="H7">
+        <v>2.919612</v>
+      </c>
+      <c r="I7">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="J7">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.205863</v>
+      </c>
+      <c r="N7">
+        <v>0.6175889999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6823350948115756</v>
+      </c>
+      <c r="P7">
+        <v>0.6823350948115755</v>
+      </c>
+      <c r="Q7">
+        <v>0.200346695052</v>
+      </c>
+      <c r="R7">
+        <v>1.803120255468</v>
+      </c>
+      <c r="S7">
+        <v>0.01541931802161773</v>
+      </c>
+      <c r="T7">
+        <v>0.01541931802161773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01491966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.044759</v>
+      </c>
+      <c r="I8">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="J8">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09584066666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.287522</v>
+      </c>
+      <c r="O8">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="P8">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="Q8">
+        <v>0.001429910799777778</v>
+      </c>
+      <c r="R8">
+        <v>0.012869197198</v>
+      </c>
+      <c r="S8">
+        <v>0.0001100504770422926</v>
+      </c>
+      <c r="T8">
+        <v>0.0001100504770422925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01491966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.044759</v>
+      </c>
+      <c r="I9">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="J9">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.956642</v>
-      </c>
-      <c r="I6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.194209333333333</v>
-      </c>
-      <c r="N6">
-        <v>15.582628</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.656332935019555</v>
-      </c>
-      <c r="R6">
-        <v>14.906996415176</v>
-      </c>
-      <c r="S6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="T6">
-        <v>0.008818315717018348</v>
+      <c r="M9">
+        <v>0.205863</v>
+      </c>
+      <c r="N9">
+        <v>0.6175889999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6823350948115756</v>
+      </c>
+      <c r="P9">
+        <v>0.6823350948115755</v>
+      </c>
+      <c r="Q9">
+        <v>0.003071407339</v>
+      </c>
+      <c r="R9">
+        <v>0.027642666051</v>
+      </c>
+      <c r="S9">
+        <v>0.0002363852646617386</v>
+      </c>
+      <c r="T9">
+        <v>0.0002363852646617386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02822</v>
+      </c>
+      <c r="H10">
+        <v>0.08466</v>
+      </c>
+      <c r="I10">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J10">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09584066666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.287522</v>
+      </c>
+      <c r="O10">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="P10">
+        <v>0.3176649051884244</v>
+      </c>
+      <c r="Q10">
+        <v>0.002704623613333334</v>
+      </c>
+      <c r="R10">
+        <v>0.02434161252</v>
+      </c>
+      <c r="S10">
+        <v>0.0002081564241024261</v>
+      </c>
+      <c r="T10">
+        <v>0.000208156424102426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02822</v>
+      </c>
+      <c r="H11">
+        <v>0.08466</v>
+      </c>
+      <c r="I11">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J11">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.205863</v>
+      </c>
+      <c r="N11">
+        <v>0.6175889999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.6823350948115756</v>
+      </c>
+      <c r="P11">
+        <v>0.6823350948115755</v>
+      </c>
+      <c r="Q11">
+        <v>0.005809453859999999</v>
+      </c>
+      <c r="R11">
+        <v>0.05228508473999999</v>
+      </c>
+      <c r="S11">
+        <v>0.0004471140219009092</v>
+      </c>
+      <c r="T11">
+        <v>0.0004471140219009091</v>
       </c>
     </row>
   </sheetData>
